--- a/data/evaluation/evaluation_North_Winter_Lemons.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Lemons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2113.1361813641</v>
+        <v>2118.951555052731</v>
       </c>
       <c r="C4" t="n">
-        <v>6549202.834534315</v>
+        <v>6513921.742043607</v>
       </c>
       <c r="D4" t="n">
-        <v>2559.141034514182</v>
+        <v>2552.23857467197</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2137877295365529</v>
+        <v>0.2180231194813085</v>
       </c>
     </row>
     <row r="5">
